--- a/Pandas/write/input.xlsx
+++ b/Pandas/write/input.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:B51"/>
+  <dimension ref="A2:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,6 +408,11 @@
       </c>
       <c r="B5" t="n">
         <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Hi, Your great</t>
+        </is>
       </c>
     </row>
     <row r="6">

--- a/Pandas/write/input.xlsx
+++ b/Pandas/write/input.xlsx
@@ -397,7 +397,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -407,7 +407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -422,7 +422,7 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
@@ -432,7 +432,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
@@ -442,7 +442,7 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
